--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value824.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value824.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055585018793951</v>
+        <v>1.490588188171387</v>
       </c>
       <c r="B1">
-        <v>3.868316082312584</v>
+        <v>3.713589668273926</v>
       </c>
       <c r="C1">
-        <v>2.207955588703951</v>
+        <v>2.131559133529663</v>
       </c>
       <c r="D1">
-        <v>1.593781288135326</v>
+        <v>1.243484616279602</v>
       </c>
       <c r="E1">
-        <v>1.377719638253992</v>
+        <v>0.7562664151191711</v>
       </c>
     </row>
   </sheetData>
